--- a/Project report/Ouputs/ODK/Avenir+Baseline+Tool+v12.0+-+Final+Version+CM.xlsx
+++ b/Project report/Ouputs/ODK/Avenir+Baseline+Tool+v12.0+-+Final+Version+CM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELLDRAMOMO\Desktop\ISRA-RNU\Project report\Ouputs\ODK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94A6F05-410A-47AA-B16D-51FC1EEBD9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$D$1:$D$1730</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$AD$1037</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -19596,7 +19595,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24">
     <font>
       <sz val="12"/>
@@ -19994,7 +19993,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -20124,6 +20123,16 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -20157,16 +20166,9 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -20183,7 +20185,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="1087">
     <dxf>
@@ -28974,14 +28976,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D753" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -29368,7 +29370,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" ht="409.5">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
@@ -29381,7 +29383,7 @@
       <c r="E13" s="60" t="s">
         <v>1175</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="86" t="s">
         <v>5480</v>
       </c>
       <c r="G13" s="50" t="s">
@@ -35369,45 +35371,45 @@
         <v>854</v>
       </c>
     </row>
-    <row r="287" spans="1:29" s="81" customFormat="1">
-      <c r="A287" s="76" t="s">
+    <row r="287" spans="1:29" s="70" customFormat="1">
+      <c r="A287" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B287" s="76" t="s">
+      <c r="B287" s="65" t="s">
         <v>839</v>
       </c>
-      <c r="C287" s="77" t="s">
+      <c r="C287" s="66" t="s">
         <v>2930</v>
       </c>
-      <c r="D287" s="76"/>
-      <c r="E287" s="78"/>
-      <c r="F287" s="79" t="s">
+      <c r="D287" s="65"/>
+      <c r="E287" s="67"/>
+      <c r="F287" s="68" t="s">
         <v>4613</v>
       </c>
-      <c r="G287" s="80"/>
-      <c r="H287" s="80"/>
-      <c r="I287" s="76"/>
-      <c r="J287" s="76"/>
-      <c r="K287" s="80"/>
-      <c r="L287" s="80"/>
-      <c r="M287" s="80"/>
-      <c r="N287" s="80"/>
-      <c r="O287" s="76" t="s">
+      <c r="G287" s="69"/>
+      <c r="H287" s="69"/>
+      <c r="I287" s="65"/>
+      <c r="J287" s="65"/>
+      <c r="K287" s="69"/>
+      <c r="L287" s="69"/>
+      <c r="M287" s="69"/>
+      <c r="N287" s="69"/>
+      <c r="O287" s="65" t="s">
         <v>854</v>
       </c>
-      <c r="P287" s="76"/>
-      <c r="Q287" s="76"/>
-      <c r="R287" s="76"/>
-      <c r="S287" s="76"/>
-      <c r="T287" s="76"/>
-      <c r="U287" s="76"/>
-      <c r="V287" s="76"/>
-      <c r="W287" s="76"/>
-      <c r="X287" s="76"/>
-      <c r="Y287" s="76"/>
-      <c r="Z287" s="76"/>
-      <c r="AA287" s="76"/>
-      <c r="AB287" s="76"/>
+      <c r="P287" s="65"/>
+      <c r="Q287" s="65"/>
+      <c r="R287" s="65"/>
+      <c r="S287" s="65"/>
+      <c r="T287" s="65"/>
+      <c r="U287" s="65"/>
+      <c r="V287" s="65"/>
+      <c r="W287" s="65"/>
+      <c r="X287" s="65"/>
+      <c r="Y287" s="65"/>
+      <c r="Z287" s="65"/>
+      <c r="AA287" s="65"/>
+      <c r="AB287" s="65"/>
     </row>
     <row r="288" spans="1:29">
       <c r="A288" s="7" t="s">
@@ -39306,43 +39308,43 @@
       <c r="M468" s="50"/>
       <c r="N468" s="50"/>
     </row>
-    <row r="469" spans="1:29" s="85" customFormat="1">
-      <c r="A469" s="82" t="s">
+    <row r="469" spans="1:29" s="74" customFormat="1">
+      <c r="A469" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B469" s="82" t="s">
+      <c r="B469" s="71" t="s">
         <v>2696</v>
       </c>
-      <c r="C469" s="82" t="s">
+      <c r="C469" s="71" t="s">
         <v>2696</v>
       </c>
-      <c r="D469" s="82"/>
-      <c r="E469" s="83"/>
-      <c r="F469" s="82" t="s">
+      <c r="D469" s="71"/>
+      <c r="E469" s="72"/>
+      <c r="F469" s="71" t="s">
         <v>5799</v>
       </c>
-      <c r="G469" s="84"/>
-      <c r="H469" s="84"/>
-      <c r="I469" s="82"/>
-      <c r="J469" s="82"/>
-      <c r="K469" s="84"/>
-      <c r="L469" s="84"/>
-      <c r="M469" s="84"/>
-      <c r="N469" s="84"/>
-      <c r="O469" s="82"/>
-      <c r="P469" s="82"/>
-      <c r="Q469" s="82"/>
-      <c r="R469" s="82"/>
-      <c r="S469" s="82"/>
-      <c r="T469" s="82"/>
-      <c r="U469" s="82"/>
-      <c r="V469" s="82"/>
-      <c r="W469" s="82"/>
-      <c r="X469" s="82"/>
-      <c r="Y469" s="82"/>
-      <c r="Z469" s="82"/>
-      <c r="AA469" s="82"/>
-      <c r="AB469" s="82"/>
+      <c r="G469" s="73"/>
+      <c r="H469" s="73"/>
+      <c r="I469" s="71"/>
+      <c r="J469" s="71"/>
+      <c r="K469" s="73"/>
+      <c r="L469" s="73"/>
+      <c r="M469" s="73"/>
+      <c r="N469" s="73"/>
+      <c r="O469" s="71"/>
+      <c r="P469" s="71"/>
+      <c r="Q469" s="71"/>
+      <c r="R469" s="71"/>
+      <c r="S469" s="71"/>
+      <c r="T469" s="71"/>
+      <c r="U469" s="71"/>
+      <c r="V469" s="71"/>
+      <c r="W469" s="71"/>
+      <c r="X469" s="71"/>
+      <c r="Y469" s="71"/>
+      <c r="Z469" s="71"/>
+      <c r="AA469" s="71"/>
+      <c r="AB469" s="71"/>
     </row>
     <row r="470" spans="1:29">
       <c r="A470" s="7" t="s">
@@ -39966,67 +39968,67 @@
         <v>886</v>
       </c>
     </row>
-    <row r="497" spans="1:29" s="81" customFormat="1">
-      <c r="A497" s="76" t="s">
+    <row r="497" spans="1:29" s="70" customFormat="1">
+      <c r="A497" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B497" s="76"/>
-      <c r="C497" s="77"/>
-      <c r="D497" s="76"/>
-      <c r="E497" s="78"/>
-      <c r="F497" s="79"/>
-      <c r="G497" s="80"/>
-      <c r="H497" s="80"/>
-      <c r="I497" s="76"/>
-      <c r="J497" s="76"/>
-      <c r="K497" s="80"/>
-      <c r="L497" s="80"/>
-      <c r="M497" s="80"/>
-      <c r="N497" s="80"/>
-      <c r="O497" s="76"/>
-      <c r="P497" s="76"/>
-      <c r="Q497" s="76"/>
-      <c r="R497" s="76"/>
-      <c r="S497" s="76"/>
-      <c r="T497" s="76"/>
-      <c r="U497" s="76"/>
-      <c r="V497" s="76"/>
-      <c r="W497" s="76"/>
-      <c r="X497" s="76"/>
-      <c r="Y497" s="76"/>
-      <c r="Z497" s="76"/>
-      <c r="AA497" s="76"/>
-      <c r="AB497" s="76"/>
-    </row>
-    <row r="498" spans="1:29" s="81" customFormat="1">
-      <c r="A498" s="76"/>
-      <c r="B498" s="76"/>
-      <c r="C498" s="77"/>
-      <c r="D498" s="76"/>
-      <c r="E498" s="78"/>
-      <c r="F498" s="79"/>
-      <c r="G498" s="80"/>
-      <c r="H498" s="80"/>
-      <c r="I498" s="76"/>
-      <c r="J498" s="76"/>
-      <c r="K498" s="80"/>
-      <c r="L498" s="80"/>
-      <c r="M498" s="80"/>
-      <c r="N498" s="80"/>
-      <c r="O498" s="76"/>
-      <c r="P498" s="76"/>
-      <c r="Q498" s="76"/>
-      <c r="R498" s="76"/>
-      <c r="S498" s="76"/>
-      <c r="T498" s="76"/>
-      <c r="U498" s="76"/>
-      <c r="V498" s="76"/>
-      <c r="W498" s="76"/>
-      <c r="X498" s="76"/>
-      <c r="Y498" s="76"/>
-      <c r="Z498" s="76"/>
-      <c r="AA498" s="76"/>
-      <c r="AB498" s="76"/>
+      <c r="B497" s="65"/>
+      <c r="C497" s="66"/>
+      <c r="D497" s="65"/>
+      <c r="E497" s="67"/>
+      <c r="F497" s="68"/>
+      <c r="G497" s="69"/>
+      <c r="H497" s="69"/>
+      <c r="I497" s="65"/>
+      <c r="J497" s="65"/>
+      <c r="K497" s="69"/>
+      <c r="L497" s="69"/>
+      <c r="M497" s="69"/>
+      <c r="N497" s="69"/>
+      <c r="O497" s="65"/>
+      <c r="P497" s="65"/>
+      <c r="Q497" s="65"/>
+      <c r="R497" s="65"/>
+      <c r="S497" s="65"/>
+      <c r="T497" s="65"/>
+      <c r="U497" s="65"/>
+      <c r="V497" s="65"/>
+      <c r="W497" s="65"/>
+      <c r="X497" s="65"/>
+      <c r="Y497" s="65"/>
+      <c r="Z497" s="65"/>
+      <c r="AA497" s="65"/>
+      <c r="AB497" s="65"/>
+    </row>
+    <row r="498" spans="1:29" s="70" customFormat="1">
+      <c r="A498" s="65"/>
+      <c r="B498" s="65"/>
+      <c r="C498" s="66"/>
+      <c r="D498" s="65"/>
+      <c r="E498" s="67"/>
+      <c r="F498" s="68"/>
+      <c r="G498" s="69"/>
+      <c r="H498" s="69"/>
+      <c r="I498" s="65"/>
+      <c r="J498" s="65"/>
+      <c r="K498" s="69"/>
+      <c r="L498" s="69"/>
+      <c r="M498" s="69"/>
+      <c r="N498" s="69"/>
+      <c r="O498" s="65"/>
+      <c r="P498" s="65"/>
+      <c r="Q498" s="65"/>
+      <c r="R498" s="65"/>
+      <c r="S498" s="65"/>
+      <c r="T498" s="65"/>
+      <c r="U498" s="65"/>
+      <c r="V498" s="65"/>
+      <c r="W498" s="65"/>
+      <c r="X498" s="65"/>
+      <c r="Y498" s="65"/>
+      <c r="Z498" s="65"/>
+      <c r="AA498" s="65"/>
+      <c r="AB498" s="65"/>
     </row>
     <row r="499" spans="1:29">
       <c r="A499" s="7" t="s">
@@ -40321,43 +40323,43 @@
       <c r="M512" s="50"/>
       <c r="N512" s="50"/>
     </row>
-    <row r="513" spans="1:29" s="81" customFormat="1">
-      <c r="A513" s="76" t="s">
+    <row r="513" spans="1:29" s="70" customFormat="1">
+      <c r="A513" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B513" s="76" t="s">
+      <c r="B513" s="65" t="s">
         <v>2341</v>
       </c>
-      <c r="C513" s="77" t="s">
+      <c r="C513" s="66" t="s">
         <v>2341</v>
       </c>
-      <c r="D513" s="76"/>
-      <c r="E513" s="78"/>
-      <c r="F513" s="79" t="s">
+      <c r="D513" s="65"/>
+      <c r="E513" s="67"/>
+      <c r="F513" s="68" t="s">
         <v>5800</v>
       </c>
-      <c r="G513" s="80"/>
-      <c r="H513" s="80"/>
-      <c r="I513" s="76"/>
-      <c r="J513" s="76"/>
-      <c r="K513" s="80"/>
-      <c r="L513" s="80"/>
-      <c r="M513" s="80"/>
-      <c r="N513" s="80"/>
-      <c r="O513" s="76"/>
-      <c r="P513" s="76"/>
-      <c r="Q513" s="76"/>
-      <c r="R513" s="76"/>
-      <c r="S513" s="76"/>
-      <c r="T513" s="76"/>
-      <c r="U513" s="76"/>
-      <c r="V513" s="76"/>
-      <c r="W513" s="76"/>
-      <c r="X513" s="76"/>
-      <c r="Y513" s="76"/>
-      <c r="Z513" s="76"/>
-      <c r="AA513" s="76"/>
-      <c r="AB513" s="76"/>
+      <c r="G513" s="69"/>
+      <c r="H513" s="69"/>
+      <c r="I513" s="65"/>
+      <c r="J513" s="65"/>
+      <c r="K513" s="69"/>
+      <c r="L513" s="69"/>
+      <c r="M513" s="69"/>
+      <c r="N513" s="69"/>
+      <c r="O513" s="65"/>
+      <c r="P513" s="65"/>
+      <c r="Q513" s="65"/>
+      <c r="R513" s="65"/>
+      <c r="S513" s="65"/>
+      <c r="T513" s="65"/>
+      <c r="U513" s="65"/>
+      <c r="V513" s="65"/>
+      <c r="W513" s="65"/>
+      <c r="X513" s="65"/>
+      <c r="Y513" s="65"/>
+      <c r="Z513" s="65"/>
+      <c r="AA513" s="65"/>
+      <c r="AB513" s="65"/>
     </row>
     <row r="514" spans="1:29">
       <c r="A514" s="7" t="s">
@@ -52592,7 +52594,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:AD1037" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AD1037"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J953:J991 O953:O991 B953:F991 B994:F994 O994 J994 J405:J415 O405:O415 B405:F415 B417:F417 O417 J417 J380:J390 O380:O390 B380:F390 J360 O360 B360:F360 J267:J273 O267:O273 B267:F273 J571:J600 O571:O600 B571:F600 J611:J625 O611:O625 B611:F625 J997:J1033 O997:O1033 B997:F1033 B241:F265 O241:O265 J241:J265 B397:F403 O397:O403 J397:J403 J477:J478 O477:O478 B477:F478 J502:J521 O502:O521 B502:F521 J174:J238 B174:F238 O174:O238 B275:F290 O275:O290 J275:J290 J419:J449 O419:O449 B419:F449 O463:O474 J463:J474 B481:F499 O481:O499 J481:J499 J523:J530 O523:O530 B523:F530 B602:F608 O602:O608 J602:J608 B627:F651 O627:O651 J627:J651 J654:J951 O654:O951 B654:F951 J292:J294 O292:O294 B292:F294 J297:J329 O297:O329 B297:F329 D349:F349 B349 B332:F348 J332:J352 O355:O358 J355:J358 B355:F358 B350:F352 O332:O352 J363:J365 B363:F365 B373:C378 E373:F378 O363:O365 O367:O378 B367:F372 J367:J378 B392:F394 O392:O394 J392:J394 B452:F461 O452:O461 J452:J461 B463:F474 B533:F568 O533:O568 J533:J568 O1:O42 J1:J42 B1:F42 J45:J171 B45:F171 O45:O171 B1035:F1048576 O1035:O1048576 J1035:J1048576">
     <cfRule type="expression" dxfId="1086" priority="23598" stopIfTrue="1">
@@ -56674,7 +56676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1754"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScalePageLayoutView="75" workbookViewId="0">
@@ -80049,7 +80051,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="D1:D1730" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="D1:D1730"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A663:I1425 A1427:I1446 A374:I661 A2:I8 A37:I372 A10:I35 A1448:I1707 A1709:I1725 B1727:I1730">
     <cfRule type="expression" dxfId="135" priority="274">
@@ -80212,11 +80214,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -80259,7 +80261,7 @@
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2011171642</v>
+        <v>2106211533</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
@@ -80274,7 +80276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD149"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
@@ -80289,22 +80291,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:30" s="18" customFormat="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:30" s="18" customFormat="1" ht="96.95" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:30" s="18" customFormat="1">
@@ -80498,10 +80500,10 @@
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:30" s="27" customFormat="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -83095,10 +83097,10 @@
       <c r="AD76" s="28"/>
     </row>
     <row r="78" spans="1:30" s="36" customFormat="1">
-      <c r="A78" s="72" t="s">
+      <c r="A78" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="73"/>
+      <c r="B78" s="83"/>
       <c r="C78" s="33"/>
       <c r="D78" s="34"/>
       <c r="E78" s="35"/>
@@ -84245,7 +84247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -84258,20 +84260,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="76"/>
     </row>
     <row r="2" spans="1:8" s="18" customFormat="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:8" s="18" customFormat="1" ht="99" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="79" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="80"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1"/>
     <row r="5" spans="1:8" s="22" customFormat="1" ht="18" customHeight="1">
@@ -84333,7 +84335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -84346,28 +84348,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:8" s="18" customFormat="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:8" s="18" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
